--- a/OBiPvIT (Ermalinskaya)/lab6/Задание 6 eduard.xlsx
+++ b/OBiPvIT (Ermalinskaya)/lab6/Задание 6 eduard.xlsx
@@ -205,7 +205,6 @@
         <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">ЗК </t>
@@ -214,7 +213,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> = 18%</t>
@@ -250,7 +248,6 @@
         <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -259,7 +256,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,7 +271,6 @@
         <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -284,7 +279,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,7 +299,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +308,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,7 +316,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -339,7 +330,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +338,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -366,7 +355,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,7 +363,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -445,7 +432,6 @@
         <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t>i</t>
@@ -454,7 +440,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -472,7 +457,6 @@
         <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t>i</t>
@@ -480,7 +464,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -498,7 +481,6 @@
         <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t>i</t>
@@ -506,7 +488,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -621,42 +602,35 @@
     <font>
       <name val="Times New Roman"/>
       <b/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Times New Roman"/>
-      <color indexed="64"/>
       <sz val="13.000000"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <i/>
-      <color indexed="64"/>
       <sz val="13.000000"/>
     </font>
     <font>
       <name val="Times New Roman"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <i/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <i/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -787,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -815,9 +789,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -917,9 +888,6 @@
     </xf>
     <xf fontId="8" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2510,17 +2478,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -2551,7 +2509,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
+            <a:defRPr sz="1400" b="0" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2580,6 +2538,9 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2603,7 +2564,6 @@
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
@@ -2611,6 +2571,7 @@
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
+              <a:noFill/>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -2631,10 +2592,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>81.85568490121804</c:v>
+                  <c:v>294.9950531577099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.094813039757582</c:v>
+                  <c:v>153.62856586123925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,34 +2607,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="476164416"/>
-        <c:axId val="476166912"/>
+        <c:axId val="664968981"/>
+        <c:axId val="664968982"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="476164416"/>
+        <c:axId val="664968981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="130"/>
-          <c:min val="-20"/>
+          <c:max val="300"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2682,6 +2634,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2691,27 +2644,16 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
@@ -2738,7 +2680,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:defRPr sz="1000">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2779,7 +2721,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2794,13 +2736,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476166912"/>
+        <c:crossAx val="664968982"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476166912"/>
+        <c:axId val="664968982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,6 +2753,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2820,27 +2763,16 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -2867,7 +2799,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:defRPr sz="1000">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2908,7 +2840,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2923,7 +2855,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476164416"/>
+        <c:crossAx val="664968981"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2969,7 +2901,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -7414,48 +7353,48 @@
       <c r="F13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" ht="28.800000000000001" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -7472,13 +7411,13 @@
         <f>SUM(D6:D10)/5</f>
         <v>263.60000000000002</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" ht="28.5">
       <c r="A17" s="4" t="s">
@@ -7495,13 +7434,13 @@
         <f>D16/D4*100</f>
         <v>21.966666666666669</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
@@ -7518,73 +7457,73 @@
         <f>D4/D16</f>
         <v>4.5523520485584212</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19">
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24">
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7600,7 +7539,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7629,17 +7568,17 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4">
@@ -7647,7 +7586,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7662,7 +7601,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
@@ -7671,16 +7610,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3">
         <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -7692,7 +7631,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
@@ -7702,7 +7641,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -7712,7 +7651,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
@@ -7722,7 +7661,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
@@ -7732,7 +7671,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
@@ -7742,7 +7681,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
@@ -7752,7 +7691,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
@@ -7762,7 +7701,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
@@ -7772,7 +7711,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
@@ -7782,7 +7721,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
@@ -7792,56 +7731,56 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="27" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" ht="28.5">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7852,16 +7791,16 @@
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>3</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>4</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>5</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>6</v>
       </c>
       <c r="G21" s="3">
@@ -7888,19 +7827,19 @@
         <f t="shared" ref="B22:B32" si="1">C6</f>
         <v>-150</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <f t="shared" ref="C22:C32" si="2">1/(1+0.12)^A46</f>
         <v>1</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="33">
         <f t="shared" ref="D22:D32" si="3">1/(1+0.18)^A46</f>
         <v>1</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <f t="shared" ref="E22:E32" si="4">1/(1+0.15)^A46</f>
         <v>1</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <f t="shared" ref="F22:F32" si="5">B22*C22</f>
         <v>-150</v>
       </c>
@@ -7933,19 +7872,19 @@
         <f t="shared" si="1"/>
         <v>-96</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <f t="shared" si="2"/>
         <v>0.89285714285714279</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <f t="shared" si="3"/>
         <v>0.84745762711864414</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f t="shared" si="4"/>
         <v>0.86956521739130443</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <f t="shared" si="5"/>
         <v>-85.714285714285708</v>
       </c>
@@ -7978,19 +7917,19 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="33">
         <f t="shared" si="2"/>
         <v>0.79719387755102034</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <f t="shared" si="3"/>
         <v>0.71818442976156283</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <f t="shared" si="4"/>
         <v>0.7561436672967865</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <f t="shared" si="5"/>
         <v>41.454081632653057</v>
       </c>
@@ -8023,19 +7962,19 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <f t="shared" si="2"/>
         <v>0.71178024781341087</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <f t="shared" si="3"/>
         <v>0.6086308726792905</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f t="shared" si="4"/>
         <v>0.65751623243198831</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <f t="shared" si="5"/>
         <v>51.248177842565582</v>
       </c>
@@ -8068,19 +8007,19 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <f t="shared" si="2"/>
         <v>0.63551807840483121</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <f t="shared" si="3"/>
         <v>0.51578887515194116</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <f t="shared" si="4"/>
         <v>0.57175324559303342</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="33">
         <f t="shared" si="5"/>
         <v>57.196627056434806</v>
       </c>
@@ -8113,19 +8052,19 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <f t="shared" si="2"/>
         <v>0.56742685571859919</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <f t="shared" si="3"/>
         <v>0.43710921623045873</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <f t="shared" si="4"/>
         <v>0.49717673529828987</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <f t="shared" si="5"/>
         <v>56.742685571859916</v>
       </c>
@@ -8158,19 +8097,19 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <f t="shared" si="2"/>
         <v>0.50663112117732068</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <f t="shared" si="3"/>
         <v>0.37043153917835481</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <f t="shared" si="4"/>
         <v>0.43232759591155645</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <f t="shared" si="5"/>
         <v>53.196267723618668</v>
       </c>
@@ -8203,19 +8142,19 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <f t="shared" si="2"/>
         <v>0.45234921533689343</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="33">
         <f t="shared" si="3"/>
         <v>0.31392503320199561</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <f t="shared" si="4"/>
         <v>0.37593703992309269</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="33">
         <f t="shared" si="5"/>
         <v>76.899366607271887</v>
       </c>
@@ -8248,19 +8187,19 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="33">
         <f t="shared" si="2"/>
         <v>0.4038832279793691</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="33">
         <f t="shared" si="3"/>
         <v>0.26603816373050476</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <f t="shared" si="4"/>
         <v>0.32690177384616753</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="33">
         <f t="shared" si="5"/>
         <v>68.660148756492745</v>
       </c>
@@ -8293,19 +8232,19 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <f t="shared" si="2"/>
         <v>0.36061002498157957</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <f t="shared" si="3"/>
         <v>0.22545607095805489</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <f t="shared" si="4"/>
         <v>0.28426241204014574</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <f t="shared" si="5"/>
         <v>57.697603997052731</v>
       </c>
@@ -8338,19 +8277,19 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <f t="shared" si="2"/>
         <v>0.32197323659069599</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="33">
         <f t="shared" si="3"/>
         <v>0.19106446691360587</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <f t="shared" si="4"/>
         <v>0.24718470612186585</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="33">
         <f t="shared" si="5"/>
         <v>67.614379684046156</v>
       </c>
@@ -8376,39 +8315,39 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" ht="28.5">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="3">
@@ -8425,10 +8364,10 @@
       </c>
     </row>
     <row r="38" ht="28.5">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="3">
@@ -8445,10 +8384,10 @@
       </c>
     </row>
     <row r="39" ht="28.5">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="3">
@@ -8465,40 +8404,40 @@
       </c>
     </row>
     <row r="40" ht="28.5">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="8">
         <f>C3-(I32*(C4-C3))/(J32-I32)</f>
         <v>27.693917139727912</v>
       </c>
-      <c r="D40" s="40"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="9"/>
     </row>
     <row r="42">
-      <c r="C42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43">
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <f t="shared" ref="C43:C44" si="11">C3</f>
         <v>11</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <f>C37</f>
         <v>294.99505315770989</v>
       </c>
     </row>
     <row r="44">
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <f>D37</f>
         <v>153.62856586123925</v>
       </c>
@@ -8507,43 +8446,43 @@
       <c r="A46" s="1">
         <v>0</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>2</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>4</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
     </row>
     <row r="51">
       <c r="A51" s="1">
@@ -8594,7 +8533,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8609,23 +8548,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="15" width="33.88671875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="15" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="15" width="22.33203125"/>
-    <col min="4" max="16384" style="15" width="9.109375"/>
+    <col customWidth="1" min="1" max="1" style="14" width="33.88671875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="14" width="12.6640625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="14" width="22.33203125"/>
+    <col min="4" max="16384" style="14" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -8775,13 +8714,13 @@
     <row r="18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -8795,7 +8734,7 @@
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="3">
@@ -8823,7 +8762,7 @@
       <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="3">
@@ -8851,7 +8790,7 @@
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="3">
@@ -8879,89 +8818,89 @@
       <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="8">
         <f>C3</f>
         <v>0.13</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f>C19*C22+C20*C21</f>
         <v>1806.7650000000001</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <f>D19*C22+D20*D21</f>
         <v>1427.9949999999999</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f>E19*C22+E20*E21</f>
         <v>1653.5550000000001</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <f>F19*C22+F20*F21</f>
         <v>1926.8540000000003</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="44">
         <f>G19*C22+G20*G21</f>
         <v>1697.9100000000001</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="30">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="32" ht="34.799999999999997" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8978,7 +8917,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -8992,299 +8931,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="48" width="14.5546875"/>
-    <col customWidth="1" min="2" max="2" style="48" width="14.109375"/>
-    <col customWidth="1" min="3" max="3" style="48" width="12.88671875"/>
-    <col customWidth="1" min="4" max="4" style="48" width="15.44140625"/>
-    <col customWidth="1" min="5" max="5" style="48" width="12.88671875"/>
-    <col customWidth="1" min="6" max="6" style="48" width="19.44140625"/>
-    <col customWidth="1" min="7" max="7" style="48" width="21.5546875"/>
-    <col customWidth="1" min="8" max="8" style="48" width="14.88671875"/>
-    <col customWidth="1" min="9" max="9" style="48" width="13.77734375"/>
-    <col min="10" max="16384" style="48" width="8.88671875"/>
+    <col customWidth="1" min="1" max="1" style="46" width="14.5546875"/>
+    <col customWidth="1" min="2" max="2" style="46" width="14.109375"/>
+    <col customWidth="1" min="3" max="3" style="46" width="12.88671875"/>
+    <col customWidth="1" min="4" max="4" style="46" width="15.44140625"/>
+    <col customWidth="1" min="5" max="5" style="46" width="12.88671875"/>
+    <col customWidth="1" min="6" max="6" style="46" width="19.44140625"/>
+    <col customWidth="1" min="7" max="7" style="46" width="21.5546875"/>
+    <col customWidth="1" min="8" max="8" style="46" width="14.88671875"/>
+    <col customWidth="1" min="9" max="9" style="46" width="13.77734375"/>
+    <col min="10" max="16384" style="46" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="D1" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="47"/>
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51">
+      <c r="H1" s="49">
         <v>12</v>
       </c>
-      <c r="I1" s="52"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53">
+      <c r="A3" s="51">
         <f>H5</f>
         <v>64</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="51">
         <f>H4</f>
         <v>15</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="51">
         <f>I5</f>
         <v>57</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="51">
         <f>I4</f>
         <v>20</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="51">
         <v>150</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="51">
         <v>160</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53">
+      <c r="A4" s="51">
         <f>H7</f>
         <v>56</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="51">
         <f>H6</f>
         <v>20</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="51">
         <f>I7</f>
         <v>53</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="51">
         <f>I6</f>
         <v>40</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="51">
         <v>15</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53">
+      <c r="A5" s="51">
         <f>H9</f>
         <v>30</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="51">
         <f>H8</f>
         <v>10</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="51">
         <f>I9</f>
         <v>50</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="51">
         <f>I8</f>
         <v>15</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="51">
         <v>64</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="51">
         <v>57</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="G6" s="53" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="G6" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <v>20</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="51">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="51">
         <v>56</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="51">
         <v>53</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <f>H3</f>
         <v>150</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <f>I3</f>
         <v>160</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>10</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="42.75">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <f>((A3*B3)+(A4*B4)+(A5*B5))/B8</f>
         <v>15.866666666666667</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="51">
         <f>((D3*E3)+(D4*E4)+(D5*E5))/E8</f>
         <v>25.0625</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="51">
         <v>30</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="51">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <f>((B3-B9)^2*A3+(B4-B9)^2*A4+(B5-B9)^2*A5)/B8</f>
         <v>13.582222222222221</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="51">
         <f>((E3-E9)^2*D3+(E4-E9)^2*D4+(E5-E9)^2*D5)/E8</f>
         <v>114.68359375</v>
       </c>
     </row>
     <row r="11" ht="43.799999999999997" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <f>SQRT(B10)</f>
         <v>3.6854066562894006</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="51">
         <f>SQRT(E10)</f>
         <v>10.709042615939111</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" ht="28.5">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <f>B11/B9*100</f>
         <v>23.227352875773533</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="51">
         <f>E11/E9*100</f>
         <v>42.729347096016404</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" ht="28.800000000000001" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="53" t="str">
+      <c r="B13" s="51" t="str">
         <f>IF(AND(B12&gt;0,B12&lt;=9),"Слабая",IF(AND(B12&gt;10,B12&lt;=25),"Умеренная","Высокая"))</f>
         <v>Умеренная</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="51" t="str">
         <f>IF(AND(E12&gt;0,E12&lt;=9),"Слабая",IF(AND(E12&gt;10,E12&lt;=25),"Умеренная","Высокая"))</f>
         <v>Высокая</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" ht="14.4" customHeight="1"/>
   </sheetData>
@@ -9296,7 +9235,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>